--- a/Practice/TestData/Book.xlsx
+++ b/Practice/TestData/Book.xlsx
@@ -1,32 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Practice\Practice\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D122BE5A-D2E9-4583-A871-F42D31A02D62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D694185-B440-487C-A8BF-112091911D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F0252BEF-4D09-4C8D-BC15-17C6A2A875CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -35,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
-    <t>Logins</t>
-  </si>
-  <si>
     <t>username</t>
   </si>
   <si>
@@ -57,6 +46,9 @@
   </si>
   <si>
     <t>KGreddy88</t>
+  </si>
+  <si>
+    <t>Login</t>
   </si>
 </sst>
 </file>
@@ -411,7 +403,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -423,46 +415,46 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
